--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1736587.68783809</v>
+        <v>-1738537.913666651</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>525026.0025831552</v>
+        <v>296982.855662418</v>
       </c>
     </row>
     <row r="8">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>202.1845787823942</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>295.7106464383211</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>81.64802493589373</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>164.1314710794257</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>282.090993335365</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>119.7237233914571</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>129.066617851613</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>160.1743669966224</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>165.3902575986307</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.36440507304776</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182105</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.7678763908808</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.943673479379</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>268.6209888761804</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>34.26584747916409</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.1083205041502</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>57.8779277776006</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>127.8144229774396</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>77.02487381022598</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>269.9829196837177</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522965</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
         <v>99.11493096898717</v>
@@ -2731,7 +2731,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2767,7 +2767,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689367</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692842</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
         <v>77.28915789329058</v>
@@ -2968,7 +2968,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3013,7 +3013,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593968</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224541</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1061.921889775366</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1061.921889775366</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1061.921889775366</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>676.1336371771213</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2144.689682991343</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1791.921027721229</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1791.921027721229</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.521729839487</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>562.3396194797416</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>562.3396194797416</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.524362591491</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1275.524362591491</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>917.2586639847409</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>917.2586639847409</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>910.3131632355374</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3493551337243</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2576.216037087458</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2576.216037087458</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2322.454251725549</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2322.454251725549</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1969.685596455435</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1596.219838194355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.124202655613</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>184.3133028825999</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>388.7731165986622</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.9169416640007</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942404</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942404</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942404</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942404</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5036,16 +5036,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.530591931886</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M12" t="n">
-        <v>1422.865911461588</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.386567099205</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>861.4909633328887</v>
+        <v>711.07295488083</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049818</v>
+        <v>542.1367719529231</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1228.479675815808</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1228.479675815808</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1228.479675815808</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>1228.479675815808</v>
       </c>
       <c r="W13" t="n">
-        <v>1133.156678913841</v>
+        <v>939.0625057788474</v>
       </c>
       <c r="X13" t="n">
-        <v>1133.156678913841</v>
+        <v>711.07295488083</v>
       </c>
       <c r="Y13" t="n">
-        <v>912.3640997703106</v>
+        <v>711.07295488083</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,28 +5300,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1608.660951743751</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N15" t="n">
-        <v>1953.181607381369</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.935021465331</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P15" t="n">
-        <v>2384.578499078682</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>662.0910440466406</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>493.1548611187337</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>343.038221706398</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>343.038221706398</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>343.038221706398</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>343.038221706398</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>892.7214197110717</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>892.7214197110717</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W16" t="n">
-        <v>892.7214197110717</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X16" t="n">
-        <v>892.7214197110717</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>843.7395088768803</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,13 +5504,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
@@ -5522,43 +5522,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>155.299447258669</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>280.6570073165065</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M18" t="n">
-        <v>1442.339749591389</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>496.3514742750683</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C19" t="n">
-        <v>496.3514742750683</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D19" t="n">
-        <v>346.2348348627326</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E19" t="n">
-        <v>346.2348348627326</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F19" t="n">
-        <v>346.2348348627326</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488382</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>898.7925182488382</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X19" t="n">
-        <v>898.7925182488382</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y19" t="n">
-        <v>677.999939105308</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>629.3975440735812</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.809122337732</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.0324822735073</v>
+        <v>622.9469297333502</v>
       </c>
       <c r="C22" t="n">
-        <v>506.0324822735073</v>
+        <v>454.0107468054433</v>
       </c>
       <c r="D22" t="n">
-        <v>506.0324822735073</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0324822735073</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>506.0324822735073</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>337.8571605933279</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>622.9469297333502</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>334.2881267578673</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>334.2881267578673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>583.5611725871966</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>583.5611725871966</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>433.4445331748608</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
         <v>208.7516828383384</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>691.4257219422426</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>436.7412337363557</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W25" t="n">
-        <v>436.7412337363557</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383384</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383384</v>
+        <v>765.2096374174363</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028583</v>
+        <v>1239.074732711013</v>
       </c>
       <c r="M27" t="n">
-        <v>865.5852378527471</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="N27" t="n">
-        <v>1669.996816116898</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6379,16 +6379,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1819.161927111988</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083205</v>
@@ -6616,16 +6616,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111988</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,37 +6929,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1632.846287851668</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1881.59970193563</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2401.900323671377</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7075,10 +7075,10 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,7 +7129,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,16 +7248,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
         <v>1819.161927111988</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229671</v>
@@ -7321,7 +7321,7 @@
         <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,16 +7485,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
         <v>1819.161927111988</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7722,19 +7722,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>209.3059168988227</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10203,10 +10203,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>47.6417245404809</v>
+        <v>87.90933194106563</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>204.6914669593172</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>204.633849306084</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>61.57818430961149</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.4675751088895</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>40.15293359272241</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>15.97015488815714</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>17.61636352239691</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>145.5661327027732</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>30.38524795922734</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>90.73754524061175</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>21.09940539009651</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>69.40908883634319</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.2544327148596</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262556</v>
+        <v>58099.54682262555</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065629</v>
       </c>
       <c r="F2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065629</v>
       </c>
       <c r="G2" t="n">
         <v>58654.35896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065627</v>
       </c>
       <c r="I2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065628</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982132</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982129</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982129</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963054</v>
+        <v>230928.7312963056</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371247</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>112586.3083663466</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759103</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759186</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189642</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189639</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727313.7188216751</v>
+        <v>-727429.6716855814</v>
       </c>
       <c r="C6" t="n">
-        <v>-160340.0845042072</v>
+        <v>-160340.0845042073</v>
       </c>
       <c r="D6" t="n">
         <v>-160340.0845042073</v>
       </c>
       <c r="E6" t="n">
-        <v>-559280.7971555323</v>
+        <v>-559378.2562815046</v>
       </c>
       <c r="F6" t="n">
-        <v>-34120.76067863621</v>
+        <v>-34218.21980460838</v>
       </c>
       <c r="G6" t="n">
-        <v>-34120.7606786362</v>
+        <v>-34218.21980460828</v>
       </c>
       <c r="H6" t="n">
-        <v>-34120.76067863619</v>
+        <v>-34218.21980460839</v>
       </c>
       <c r="I6" t="n">
-        <v>-34120.76067863621</v>
+        <v>-34218.21980460839</v>
       </c>
       <c r="J6" t="n">
-        <v>-290272.2853084059</v>
+        <v>-290272.2853084061</v>
       </c>
       <c r="K6" t="n">
-        <v>-59343.5540121005</v>
+        <v>-59343.55401210046</v>
       </c>
       <c r="L6" t="n">
-        <v>-59343.55401210046</v>
+        <v>-59343.55401210048</v>
       </c>
       <c r="M6" t="n">
         <v>-194144.5692459377</v>
       </c>
       <c r="N6" t="n">
-        <v>-59343.55401210051</v>
+        <v>-59343.55401210042</v>
       </c>
       <c r="O6" t="n">
-        <v>-113849.066115813</v>
+        <v>-113849.0661158129</v>
       </c>
       <c r="P6" t="n">
-        <v>-59343.55401210047</v>
+        <v>-59343.55401210045</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>307.0413170802021</v>
+        <v>266.7737096796174</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>32.04161203181383</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>41.83177942899215</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>54.69198941751436</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>38.24318440743787</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>64.86073846146184</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>1.856563499997179</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>19.83197231642228</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>368.1415411704426</v>
+        <v>158.0642534345934</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32093,10 +32093,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>339.3147979156453</v>
       </c>
       <c r="Q15" t="n">
-        <v>171.3135836203298</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>59.41563758725099</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32324,25 +32324,25 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>339.3147979156454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,25 +32549,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>213.9849829127209</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>339.3147979156453</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>241.4090972701575</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>338.063701399498</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>186.3865186257892</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33114,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,28 +33251,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>212.6272478467034</v>
+        <v>241.4090972701574</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33351,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,28 +33488,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>212.6272478467034</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041505</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>212.6272478467034</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>153.8167911024564</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304457</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,28 +33962,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>212.6272478467034</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34062,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34214,10 +34214,10 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>212.6272478467034</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813461</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34451,13 +34451,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>212.6272478467034</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>600.4275066940276</v>
+        <v>390.3502189581783</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
@@ -35507,7 +35507,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35741,10 +35741,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>523.8031591412522</v>
       </c>
       <c r="Q15" t="n">
-        <v>241.4090972701574</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>58.66904626099313</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35972,16 +35972,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>687.3154601758656</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>537.5560127407025</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>523.8031591412522</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>71.46447792446374</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>570.349666923083</v>
       </c>
       <c r="M27" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>437.6525934580743</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36759,16 +36759,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M28" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>536.198277674685</v>
+        <v>564.980127098139</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36996,16 +36996,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>536.198277674685</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,16 +37233,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303347</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>536.198277674685</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>223.912304752284</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,13 +37470,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109089</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>536.198277674685</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>536.198277674685</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,16 +37944,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>536.198277674685</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38181,7 +38181,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
